--- a/SOAP api atc.xlsx
+++ b/SOAP api atc.xlsx
@@ -10,12 +10,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$O$18</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="65">
   <si>
     <t>SOAP API EXAMPLE</t>
   </si>
@@ -91,9 +94,6 @@
     <t>zero</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
@@ -103,9 +103,6 @@
     <t>-1-11+1</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Check the Number to Word SOAP Api with negative inputs</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
   </si>
   <si>
     <t>Verify to check with Mix value</t>
-  </si>
-  <si>
-    <t>AFDY5688^&amp;()</t>
   </si>
   <si>
     <t xml:space="preserve">Verify to check with the Number to word functionality without Header </t>
@@ -196,6 +190,52 @@
   </si>
   <si>
     <t>System should display appropriate message like incorrect xml or incorrect xml format</t>
+  </si>
+  <si>
+    <t>Check the Number to Word SOAP Api response</t>
+  </si>
+  <si>
+    <t>Verify to check Number to Word SOAP Api response XML structure</t>
+  </si>
+  <si>
+    <t>System should display expected XML structure</t>
+  </si>
+  <si>
+    <t>Verify to check Number to Word SOAP Api response errors and error code</t>
+  </si>
+  <si>
+    <t>System should display expected error messages with expected error code</t>
+  </si>
+  <si>
+    <t>Verify to check when Content-Type is not added as text/xml</t>
+  </si>
+  <si>
+    <t>AFDY5688^&amp;() 
+10,000
+00123
+10/1000
+10.36</t>
+  </si>
+  <si>
+    <t>Verify to check with Unicode Characters</t>
+  </si>
+  <si>
+    <t>🌟</t>
+  </si>
+  <si>
+    <t>⅓
+١23٤٥
+١٢٣٤٥</t>
+  </si>
+  <si>
+    <t>Verify to check with Number as Words</t>
+  </si>
+  <si>
+    <t>two hundred fifty-five
+two hundred fifty five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System should display appropiate message </t>
   </si>
 </sst>
 </file>
@@ -253,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -263,6 +303,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -606,11 +647,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
@@ -656,10 +697,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>8</v>
@@ -694,7 +735,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>17</v>
@@ -706,25 +747,21 @@
         <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="105" x14ac:dyDescent="0.25">
@@ -740,13 +777,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>18</v>
@@ -755,22 +792,17 @@
         <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="105" x14ac:dyDescent="0.25">
@@ -786,250 +818,580 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B18" si="0">IF(D4=D5,B4,B4+1)</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C18" si="1">IF(D4=D5,C4+1,1)</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="M12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
+    <row r="13" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="3" t="s">
+    <row r="15" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="3" t="s">
+    <row r="16" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" s="3" t="s">
+    <row r="17" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" s="3" t="s">
+    <row r="18" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>52</v>
+      <c r="E18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O18"/>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1"/>
   </hyperlinks>
